--- a/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
@@ -161,18 +161,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A228" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E244" activeCellId="0" sqref="E244"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A292" activeCellId="0" sqref="A292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3876,6 +3876,237 @@
       </c>
       <c r="C270" s="0" t="n">
         <v>64.0844330855018</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" s="4" t="n">
+        <v>43370</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" s="4" t="n">
+        <v>43371</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" s="4" t="n">
+        <v>43372</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" s="4" t="n">
+        <v>43373</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" s="4" t="n">
+        <v>43374</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="3" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" s="4" t="n">
+        <v>43375</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="3" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" s="4" t="n">
+        <v>43376</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="3" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" s="4" t="n">
+        <v>43377</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="3" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" s="4" t="n">
+        <v>43378</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="3" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" s="4" t="n">
+        <v>43379</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="3" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" s="4" t="n">
+        <v>43380</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" s="4" t="n">
+        <v>43381</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="3" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" s="4" t="n">
+        <v>43382</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="3" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" s="4" t="n">
+        <v>43383</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="3" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" s="4" t="n">
+        <v>43384</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" s="4" t="n">
+        <v>43385</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="3" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" s="4" t="n">
+        <v>43386</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" s="4" t="n">
+        <v>43387</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4" t="n">
+        <v>43388</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="3" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" s="4" t="n">
+        <v>43389</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="3" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" s="4" t="n">
+        <v>43390</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
@@ -161,18 +161,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A292" activeCellId="0" sqref="A292"/>
+      <selection pane="topLeft" activeCell="C293" activeCellId="0" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4106,6 +4106,17 @@
         <v>43390</v>
       </c>
       <c r="C291" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="3" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" s="4" t="n">
+        <v>43391</v>
+      </c>
+      <c r="C292" s="0" t="n">
         <v>-100</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
@@ -161,18 +161,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C293" activeCellId="0" sqref="C293"/>
+      <selection pane="topLeft" activeCell="C292" activeCellId="0" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4118,6 +4118,30 @@
       </c>
       <c r="C292" s="0" t="n">
         <v>-100</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="3" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" s="4" t="n">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="3" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" s="4" t="n">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" s="4" t="n">
+        <v>43394</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Day_Number</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily_Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly_Average</t>
   </si>
 </sst>
 </file>
@@ -161,19 +155,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C292" activeCellId="0" sqref="C292"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,12 +175,6 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
@@ -197,12 +183,6 @@
       <c r="B2" s="4" t="n">
         <v>43101</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>18.0225</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -211,12 +191,6 @@
       <c r="B3" s="4" t="n">
         <v>43102</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>18.1233333333333</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -225,12 +199,6 @@
       <c r="B4" s="4" t="n">
         <v>43103</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>20.7397222222222</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -239,12 +207,6 @@
       <c r="B5" s="4" t="n">
         <v>43104</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>21.4697916666667</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
@@ -253,12 +215,6 @@
       <c r="B6" s="4" t="n">
         <v>43105</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>21.4219166666667</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
@@ -267,12 +223,6 @@
       <c r="B7" s="4" t="n">
         <v>43106</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>21.7784722222222</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
@@ -281,12 +231,6 @@
       <c r="B8" s="4" t="n">
         <v>43107</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>22.2393452380952</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -295,12 +239,6 @@
       <c r="B9" s="4" t="n">
         <v>43108</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>23.7445833333333</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -309,12 +247,6 @@
       <c r="B10" s="4" t="n">
         <v>43109</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>25.7130555555556</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
@@ -323,12 +255,6 @@
       <c r="B11" s="4" t="n">
         <v>43110</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>28.232125</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
@@ -337,12 +263,6 @@
       <c r="B12" s="4" t="n">
         <v>43111</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>30.8648863636364</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
@@ -351,12 +271,6 @@
       <c r="B13" s="4" t="n">
         <v>43112</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>32.5969791666667</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
@@ -365,12 +279,6 @@
       <c r="B14" s="4" t="n">
         <v>43113</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>32.131858974359</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
@@ -379,12 +287,6 @@
       <c r="B15" s="4" t="n">
         <v>43114</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>31.4129464285714</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
@@ -393,12 +295,6 @@
       <c r="B16" s="4" t="n">
         <v>43115</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>31.5219166666667</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
@@ -407,12 +303,6 @@
       <c r="B17" s="4" t="n">
         <v>43116</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>31.43765625</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
@@ -421,12 +311,6 @@
       <c r="B18" s="4" t="n">
         <v>43117</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
@@ -435,12 +319,6 @@
       <c r="B19" s="4" t="n">
         <v>43118</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>29.9772222222222</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
@@ -449,12 +327,6 @@
       <c r="B20" s="4" t="n">
         <v>43119</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>30.0563377192982</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
@@ -463,12 +335,6 @@
       <c r="B21" s="4" t="n">
         <v>43120</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>30.7489375</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
@@ -477,12 +343,6 @@
       <c r="B22" s="4" t="n">
         <v>43121</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>31.6463690476191</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
@@ -491,12 +351,6 @@
       <c r="B23" s="4" t="n">
         <v>43122</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>32.5261742424242</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
@@ -505,12 +359,6 @@
       <c r="B24" s="4" t="n">
         <v>43123</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>33.261231884058</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
@@ -519,12 +367,6 @@
       <c r="B25" s="4" t="n">
         <v>43124</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>33.6058159722222</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
@@ -533,12 +375,6 @@
       <c r="B26" s="4" t="n">
         <v>43125</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>33.8217833333333</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
@@ -547,12 +383,6 @@
       <c r="B27" s="4" t="n">
         <v>43126</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>34.0991666666667</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
@@ -561,12 +391,6 @@
       <c r="B28" s="4" t="n">
         <v>43127</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>34.7181018518519</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
@@ -575,12 +399,6 @@
       <c r="B29" s="4" t="n">
         <v>43128</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>35.3471279761905</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
@@ -589,12 +407,6 @@
       <c r="B30" s="4" t="n">
         <v>43129</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>35.7656752873563</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
@@ -603,12 +415,6 @@
       <c r="B31" s="4" t="n">
         <v>43130</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>35.7349166666667</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
@@ -617,12 +423,6 @@
       <c r="B32" s="4" t="n">
         <v>43131</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>35.7931720430108</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>29.3233265</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
@@ -631,12 +431,6 @@
       <c r="B33" s="4" t="n">
         <v>43132</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>36.2160807291667</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
@@ -645,12 +439,6 @@
       <c r="B34" s="4" t="n">
         <v>43133</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>36.092297979798</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
@@ -659,12 +447,6 @@
       <c r="B35" s="4" t="n">
         <v>43134</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>35.9722549019608</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
@@ -673,12 +455,6 @@
       <c r="B36" s="4" t="n">
         <v>43135</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>36.1473928571429</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
@@ -687,12 +463,6 @@
       <c r="B37" s="4" t="n">
         <v>43136</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>36.1611458333333</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
@@ -701,12 +471,6 @@
       <c r="B38" s="4" t="n">
         <v>43137</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <v>36.2821846846847</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
@@ -715,12 +479,6 @@
       <c r="B39" s="4" t="n">
         <v>43138</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>36.518125</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
@@ -729,12 +487,6 @@
       <c r="B40" s="4" t="n">
         <v>43139</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>36.5600213675214</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
@@ -743,12 +495,6 @@
       <c r="B41" s="4" t="n">
         <v>43140</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>36.7586666666667</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
@@ -757,12 +503,6 @@
       <c r="B42" s="4" t="n">
         <v>43141</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>37.165325203252</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
@@ -771,12 +511,6 @@
       <c r="B43" s="4" t="n">
         <v>43142</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>37.7782043650794</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
@@ -785,12 +519,6 @@
       <c r="B44" s="4" t="n">
         <v>43143</v>
       </c>
-      <c r="C44" s="0" t="n">
-        <v>37.9692441860465</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
@@ -799,12 +527,6 @@
       <c r="B45" s="4" t="n">
         <v>43144</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <v>38.1403125</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
@@ -813,12 +535,6 @@
       <c r="B46" s="4" t="n">
         <v>43145</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>38.4418981481481</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
@@ -827,12 +543,6 @@
       <c r="B47" s="4" t="n">
         <v>43146</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>38.9872644927536</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
@@ -841,12 +551,6 @@
       <c r="B48" s="4" t="n">
         <v>43147</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <v>39.485354609929</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
@@ -855,12 +559,6 @@
       <c r="B49" s="4" t="n">
         <v>43148</v>
       </c>
-      <c r="C49" s="0" t="n">
-        <v>39.6995486111111</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
@@ -869,12 +567,6 @@
       <c r="B50" s="4" t="n">
         <v>43149</v>
       </c>
-      <c r="C50" s="0" t="n">
-        <v>39.9299149659864</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
@@ -883,12 +575,6 @@
       <c r="B51" s="4" t="n">
         <v>43150</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <v>40.3454916666666</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
@@ -897,12 +583,6 @@
       <c r="B52" s="4" t="n">
         <v>43151</v>
       </c>
-      <c r="C52" s="0" t="n">
-        <v>40.8108905228758</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
@@ -911,12 +591,6 @@
       <c r="B53" s="4" t="n">
         <v>43152</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>41.3832852564102</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
@@ -925,12 +599,6 @@
       <c r="B54" s="4" t="n">
         <v>43153</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>41.9495283018868</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
@@ -939,12 +607,6 @@
       <c r="B55" s="4" t="n">
         <v>43154</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>42.4639969135802</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
@@ -953,12 +615,6 @@
       <c r="B56" s="4" t="n">
         <v>43155</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <v>42.9548863636363</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
@@ -967,12 +623,6 @@
       <c r="B57" s="4" t="n">
         <v>43156</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <v>43.248087797619</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
@@ -981,12 +631,6 @@
       <c r="B58" s="4" t="n">
         <v>43157</v>
       </c>
-      <c r="C58" s="0" t="n">
-        <v>43.426418128655</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
@@ -995,12 +639,6 @@
       <c r="B59" s="4" t="n">
         <v>43158</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>43.5365876436781</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
@@ -1009,12 +647,6 @@
       <c r="B60" s="4" t="n">
         <v>43159</v>
       </c>
-      <c r="C60" s="0" t="n">
-        <v>43.6801906779661</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>39.218021442</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
@@ -1023,12 +655,6 @@
       <c r="B61" s="4" t="n">
         <v>43160</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>43.8799097222222</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
@@ -1037,12 +663,6 @@
       <c r="B62" s="4" t="n">
         <v>43161</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>43.9711338797814</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
@@ -1051,12 +671,6 @@
       <c r="B63" s="4" t="n">
         <v>43162</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>44.0060819892473</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
@@ -1065,12 +679,6 @@
       <c r="B64" s="4" t="n">
         <v>43163</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>44.0787632275132</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
@@ -1079,12 +687,6 @@
       <c r="B65" s="4" t="n">
         <v>43164</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>44.1311263020833</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
@@ -1093,12 +695,6 @@
       <c r="B66" s="4" t="n">
         <v>43165</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>44.2919807692307</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
@@ -1107,12 +703,6 @@
       <c r="B67" s="4" t="n">
         <v>43166</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>44.2725441919192</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
@@ -1121,12 +711,6 @@
       <c r="B68" s="4" t="n">
         <v>43167</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>44.1708333333333</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
@@ -1135,12 +719,6 @@
       <c r="B69" s="4" t="n">
         <v>43168</v>
       </c>
-      <c r="C69" s="0" t="n">
-        <v>44.0986825980392</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
@@ -1149,12 +727,6 @@
       <c r="B70" s="4" t="n">
         <v>43169</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>44.1720893719806</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
@@ -1163,12 +735,6 @@
       <c r="B71" s="4" t="n">
         <v>43170</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>44.3042142857143</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
@@ -1177,12 +743,6 @@
       <c r="B72" s="4" t="n">
         <v>43171</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>44.2971830985915</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
@@ -1191,12 +751,6 @@
       <c r="B73" s="4" t="n">
         <v>43172</v>
       </c>
-      <c r="C73" s="0" t="n">
-        <v>44.2671238425926</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
@@ -1205,12 +759,6 @@
       <c r="B74" s="4" t="n">
         <v>43173</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <v>44.2104623287671</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
@@ -1219,12 +767,6 @@
       <c r="B75" s="4" t="n">
         <v>43174</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>44.2496846846847</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
@@ -1233,12 +775,6 @@
       <c r="B76" s="4" t="n">
         <v>43175</v>
       </c>
-      <c r="C76" s="0" t="n">
-        <v>44.4426277777778</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">
@@ -1247,12 +783,6 @@
       <c r="B77" s="4" t="n">
         <v>43176</v>
       </c>
-      <c r="C77" s="0" t="n">
-        <v>44.6891282894737</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
@@ -1261,12 +791,6 @@
       <c r="B78" s="4" t="n">
         <v>43177</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <v>44.8908170995671</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
@@ -1275,12 +799,6 @@
       <c r="B79" s="4" t="n">
         <v>43178</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <v>45.0431517094017</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
@@ -1289,12 +807,6 @@
       <c r="B80" s="4" t="n">
         <v>43179</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>45.1594040084388</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
@@ -1303,12 +815,6 @@
       <c r="B81" s="4" t="n">
         <v>43180</v>
       </c>
-      <c r="C81" s="0" t="n">
-        <v>45.09490625</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
@@ -1317,12 +823,6 @@
       <c r="B82" s="4" t="n">
         <v>43181</v>
       </c>
-      <c r="C82" s="0" t="n">
-        <v>45.0584773662551</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
@@ -1331,12 +831,6 @@
       <c r="B83" s="4" t="n">
         <v>43182</v>
       </c>
-      <c r="C83" s="0" t="n">
-        <v>45.0662296747967</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
@@ -1345,12 +839,6 @@
       <c r="B84" s="4" t="n">
         <v>43183</v>
       </c>
-      <c r="C84" s="0" t="n">
-        <v>45.1446184738956</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
@@ -1359,12 +847,6 @@
       <c r="B85" s="4" t="n">
         <v>43184</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>45.21625</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
@@ -1373,12 +855,6 @@
       <c r="B86" s="4" t="n">
         <v>43185</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>45.2730098039216</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
@@ -1387,12 +863,6 @@
       <c r="B87" s="4" t="n">
         <v>43186</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>45.3451114341085</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
@@ -1401,12 +871,6 @@
       <c r="B88" s="4" t="n">
         <v>43187</v>
       </c>
-      <c r="C88" s="0" t="n">
-        <v>45.5238984674329</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
@@ -1415,12 +879,6 @@
       <c r="B89" s="4" t="n">
         <v>43188</v>
       </c>
-      <c r="C89" s="0" t="n">
-        <v>45.7383617424242</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
@@ -1429,12 +887,6 @@
       <c r="B90" s="4" t="n">
         <v>43189</v>
       </c>
-      <c r="C90" s="0" t="n">
-        <v>45.8645505617977</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
@@ -1443,12 +895,6 @@
       <c r="B91" s="4" t="n">
         <v>43190</v>
       </c>
-      <c r="C91" s="0" t="n">
-        <v>45.9370509259259</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>44.70610991</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="n">
@@ -1457,12 +903,6 @@
       <c r="B92" s="4" t="n">
         <v>43191</v>
       </c>
-      <c r="C92" s="0" t="n">
-        <v>46.1055815018315</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
@@ -1471,12 +911,6 @@
       <c r="B93" s="4" t="n">
         <v>43192</v>
       </c>
-      <c r="C93" s="0" t="n">
-        <v>46.3456884057971</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
@@ -1485,12 +919,6 @@
       <c r="B94" s="4" t="n">
         <v>43193</v>
       </c>
-      <c r="C94" s="0" t="n">
-        <v>46.5764292114695</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
@@ -1499,12 +927,6 @@
       <c r="B95" s="4" t="n">
         <v>43194</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>46.6869769503546</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
@@ -1513,12 +935,6 @@
       <c r="B96" s="4" t="n">
         <v>43195</v>
       </c>
-      <c r="C96" s="0" t="n">
-        <v>46.6934912280702</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
@@ -1527,12 +943,6 @@
       <c r="B97" s="4" t="n">
         <v>43196</v>
       </c>
-      <c r="C97" s="0" t="n">
-        <v>46.7179123263889</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
@@ -1541,12 +951,6 @@
       <c r="B98" s="4" t="n">
         <v>43197</v>
       </c>
-      <c r="C98" s="0" t="n">
-        <v>46.7115764604811</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
@@ -1555,12 +959,6 @@
       <c r="B99" s="4" t="n">
         <v>43198</v>
       </c>
-      <c r="C99" s="0" t="n">
-        <v>46.6592431972789</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="n">
@@ -1569,12 +967,6 @@
       <c r="B100" s="4" t="n">
         <v>43199</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>46.7081355218855</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
@@ -1583,12 +975,6 @@
       <c r="B101" s="4" t="n">
         <v>43200</v>
       </c>
-      <c r="C101" s="0" t="n">
-        <v>46.7859666666666</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="n">
@@ -1597,12 +983,6 @@
       <c r="B102" s="4" t="n">
         <v>43201</v>
       </c>
-      <c r="C102" s="0" t="n">
-        <v>46.8531889438944</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="n">
@@ -1611,12 +991,6 @@
       <c r="B103" s="4" t="n">
         <v>43202</v>
       </c>
-      <c r="C103" s="0" t="n">
-        <v>47.0109558823529</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="n">
@@ -1625,12 +999,6 @@
       <c r="B104" s="4" t="n">
         <v>43203</v>
       </c>
-      <c r="C104" s="0" t="n">
-        <v>47.2244498381877</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="n">
@@ -1639,12 +1007,6 @@
       <c r="B105" s="4" t="n">
         <v>43204</v>
       </c>
-      <c r="C105" s="0" t="n">
-        <v>47.4140184294872</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="n">
@@ -1653,12 +1015,6 @@
       <c r="B106" s="4" t="n">
         <v>43205</v>
       </c>
-      <c r="C106" s="0" t="n">
-        <v>47.4960515873016</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="n">
@@ -1667,12 +1023,6 @@
       <c r="B107" s="4" t="n">
         <v>43206</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>47.4395479559748</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="n">
@@ -1681,12 +1031,6 @@
       <c r="B108" s="4" t="n">
         <v>43207</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>47.4568224299065</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="n">
@@ -1695,12 +1039,6 @@
       <c r="B109" s="4" t="n">
         <v>43208</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>47.6427507716049</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="n">
@@ -1709,12 +1047,6 @@
       <c r="B110" s="4" t="n">
         <v>43209</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>47.727996941896</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="n">
@@ -1723,12 +1055,6 @@
       <c r="B111" s="4" t="n">
         <v>43210</v>
       </c>
-      <c r="C111" s="0" t="n">
-        <v>47.7697840909091</v>
-      </c>
-      <c r="D111" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="n">
@@ -1737,12 +1063,6 @@
       <c r="B112" s="4" t="n">
         <v>43211</v>
       </c>
-      <c r="C112" s="0" t="n">
-        <v>47.867256006006</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="n">
@@ -1751,12 +1071,6 @@
       <c r="B113" s="4" t="n">
         <v>43212</v>
       </c>
-      <c r="C113" s="0" t="n">
-        <v>47.9569308035714</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="n">
@@ -1765,12 +1079,6 @@
       <c r="B114" s="4" t="n">
         <v>43213</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>48.053709439528</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="n">
@@ -1779,12 +1087,6 @@
       <c r="B115" s="4" t="n">
         <v>43214</v>
       </c>
-      <c r="C115" s="0" t="n">
-        <v>48.163841374269</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="n">
@@ -1793,12 +1095,6 @@
       <c r="B116" s="4" t="n">
         <v>43215</v>
       </c>
-      <c r="C116" s="0" t="n">
-        <v>48.2662210144927</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="n">
@@ -1807,12 +1103,6 @@
       <c r="B117" s="4" t="n">
         <v>43216</v>
       </c>
-      <c r="C117" s="0" t="n">
-        <v>48.3186745689655</v>
-      </c>
-      <c r="D117" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="n">
@@ -1821,12 +1111,6 @@
       <c r="B118" s="4" t="n">
         <v>43217</v>
       </c>
-      <c r="C118" s="0" t="n">
-        <v>48.4066844729344</v>
-      </c>
-      <c r="D118" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="n">
@@ -1835,12 +1119,6 @@
       <c r="B119" s="4" t="n">
         <v>43218</v>
       </c>
-      <c r="C119" s="0" t="n">
-        <v>48.5314512711864</v>
-      </c>
-      <c r="D119" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="n">
@@ -1849,12 +1127,6 @@
       <c r="B120" s="4" t="n">
         <v>43219</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>48.6071918767507</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="n">
@@ -1863,12 +1135,6 @@
       <c r="B121" s="4" t="n">
         <v>43220</v>
       </c>
-      <c r="C121" s="0" t="n">
-        <v>48.6886284722222</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>47.4295719214</v>
-      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="n">
@@ -1877,12 +1143,6 @@
       <c r="B122" s="4" t="n">
         <v>43221</v>
       </c>
-      <c r="C122" s="0" t="n">
-        <v>48.8238601928374</v>
-      </c>
-      <c r="D122" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="n">
@@ -1891,12 +1151,6 @@
       <c r="B123" s="4" t="n">
         <v>43222</v>
       </c>
-      <c r="C123" s="0" t="n">
-        <v>49.0013968579235</v>
-      </c>
-      <c r="D123" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="n">
@@ -1905,12 +1159,6 @@
       <c r="B124" s="4" t="n">
         <v>43223</v>
       </c>
-      <c r="C124" s="0" t="n">
-        <v>49.1958909214092</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="n">
@@ -1919,12 +1167,6 @@
       <c r="B125" s="4" t="n">
         <v>43224</v>
       </c>
-      <c r="C125" s="0" t="n">
-        <v>49.3892405913978</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="n">
@@ -1933,12 +1175,6 @@
       <c r="B126" s="4" t="n">
         <v>43225</v>
       </c>
-      <c r="C126" s="0" t="n">
-        <v>49.5549233333333</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
@@ -1947,12 +1183,6 @@
       <c r="B127" s="4" t="n">
         <v>43226</v>
       </c>
-      <c r="C127" s="0" t="n">
-        <v>49.6959887566137</v>
-      </c>
-      <c r="D127" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="n">
@@ -1961,12 +1191,6 @@
       <c r="B128" s="4" t="n">
         <v>43227</v>
       </c>
-      <c r="C128" s="0" t="n">
-        <v>49.853717191601</v>
-      </c>
-      <c r="D128" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="n">
@@ -1975,12 +1199,6 @@
       <c r="B129" s="4" t="n">
         <v>43228</v>
       </c>
-      <c r="C129" s="0" t="n">
-        <v>49.9976497395833</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
@@ -1989,12 +1207,6 @@
       <c r="B130" s="4" t="n">
         <v>43229</v>
       </c>
-      <c r="C130" s="0" t="n">
-        <v>50.1575032299741</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="n">
@@ -2003,12 +1215,6 @@
       <c r="B131" s="4" t="n">
         <v>43230</v>
       </c>
-      <c r="C131" s="0" t="n">
-        <v>50.3287884615384</v>
-      </c>
-      <c r="D131" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="n">
@@ -2017,12 +1223,6 @@
       <c r="B132" s="4" t="n">
         <v>43231</v>
       </c>
-      <c r="C132" s="0" t="n">
-        <v>50.5045038167938</v>
-      </c>
-      <c r="D132" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="n">
@@ -2031,12 +1231,6 @@
       <c r="B133" s="4" t="n">
         <v>43232</v>
       </c>
-      <c r="C133" s="0" t="n">
-        <v>50.7037121212121</v>
-      </c>
-      <c r="D133" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="n">
@@ -2045,12 +1239,6 @@
       <c r="B134" s="4" t="n">
         <v>43233</v>
       </c>
-      <c r="C134" s="0" t="n">
-        <v>50.8930795739348</v>
-      </c>
-      <c r="D134" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="n">
@@ -2059,12 +1247,6 @@
       <c r="B135" s="4" t="n">
         <v>43234</v>
       </c>
-      <c r="C135" s="0" t="n">
-        <v>51.0944558457711</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="n">
@@ -2073,12 +1255,6 @@
       <c r="B136" s="4" t="n">
         <v>43235</v>
       </c>
-      <c r="C136" s="0" t="n">
-        <v>51.2618086419753</v>
-      </c>
-      <c r="D136" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="n">
@@ -2087,12 +1263,6 @@
       <c r="B137" s="4" t="n">
         <v>43236</v>
       </c>
-      <c r="C137" s="0" t="n">
-        <v>51.4080637254902</v>
-      </c>
-      <c r="D137" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="n">
@@ -2101,12 +1271,6 @@
       <c r="B138" s="4" t="n">
         <v>43237</v>
       </c>
-      <c r="C138" s="0" t="n">
-        <v>51.5489142335766</v>
-      </c>
-      <c r="D138" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="n">
@@ -2115,12 +1279,6 @@
       <c r="B139" s="4" t="n">
         <v>43238</v>
       </c>
-      <c r="C139" s="0" t="n">
-        <v>51.6980766908212</v>
-      </c>
-      <c r="D139" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="n">
@@ -2129,12 +1287,6 @@
       <c r="B140" s="4" t="n">
         <v>43239</v>
       </c>
-      <c r="C140" s="0" t="n">
-        <v>51.8662470023981</v>
-      </c>
-      <c r="D140" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="n">
@@ -2143,12 +1295,6 @@
       <c r="B141" s="4" t="n">
         <v>43240</v>
       </c>
-      <c r="C141" s="0" t="n">
-        <v>52.0239880952381</v>
-      </c>
-      <c r="D141" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="n">
@@ -2157,12 +1303,6 @@
       <c r="B142" s="4" t="n">
         <v>43241</v>
       </c>
-      <c r="C142" s="0" t="n">
-        <v>52.1810165484633</v>
-      </c>
-      <c r="D142" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="n">
@@ -2171,12 +1311,6 @@
       <c r="B143" s="4" t="n">
         <v>43242</v>
       </c>
-      <c r="C143" s="0" t="n">
-        <v>52.3434595070422</v>
-      </c>
-      <c r="D143" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="n">
@@ -2185,12 +1319,6 @@
       <c r="B144" s="4" t="n">
         <v>43243</v>
       </c>
-      <c r="C144" s="0" t="n">
-        <v>52.5049038461538</v>
-      </c>
-      <c r="D144" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="n">
@@ -2199,12 +1327,6 @@
       <c r="B145" s="4" t="n">
         <v>43244</v>
       </c>
-      <c r="C145" s="0" t="n">
-        <v>52.6795717592592</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="n">
@@ -2213,12 +1335,6 @@
       <c r="B146" s="4" t="n">
         <v>43245</v>
       </c>
-      <c r="C146" s="0" t="n">
-        <v>52.8551637931034</v>
-      </c>
-      <c r="D146" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="n">
@@ -2227,12 +1343,6 @@
       <c r="B147" s="4" t="n">
         <v>43246</v>
       </c>
-      <c r="C147" s="0" t="n">
-        <v>53.0082220319634</v>
-      </c>
-      <c r="D147" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="n">
@@ -2241,12 +1351,6 @@
       <c r="B148" s="4" t="n">
         <v>43247</v>
       </c>
-      <c r="C148" s="0" t="n">
-        <v>53.1638463718821</v>
-      </c>
-      <c r="D148" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="n">
@@ -2255,12 +1359,6 @@
       <c r="B149" s="4" t="n">
         <v>43248</v>
       </c>
-      <c r="C149" s="0" t="n">
-        <v>53.2878462837838</v>
-      </c>
-      <c r="D149" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="n">
@@ -2269,12 +1367,6 @@
       <c r="B150" s="4" t="n">
         <v>43249</v>
       </c>
-      <c r="C150" s="0" t="n">
-        <v>53.4229642058165</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="n">
@@ -2283,12 +1375,6 @@
       <c r="B151" s="4" t="n">
         <v>43250</v>
       </c>
-      <c r="C151" s="0" t="n">
-        <v>53.56515</v>
-      </c>
-      <c r="D151" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="n">
@@ -2297,12 +1383,6 @@
       <c r="B152" s="4" t="n">
         <v>43251</v>
       </c>
-      <c r="C152" s="0" t="n">
-        <v>53.70603200883</v>
-      </c>
-      <c r="D152" s="0" t="n">
-        <v>51.34580598</v>
-      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="n">
@@ -2311,12 +1391,6 @@
       <c r="B153" s="4" t="n">
         <v>43252</v>
       </c>
-      <c r="C153" s="0" t="n">
-        <v>53.8424122807017</v>
-      </c>
-      <c r="D153" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="n">
@@ -2325,12 +1399,6 @@
       <c r="B154" s="4" t="n">
         <v>43253</v>
       </c>
-      <c r="C154" s="0" t="n">
-        <v>53.9974101307189</v>
-      </c>
-      <c r="D154" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="n">
@@ -2339,12 +1407,6 @@
       <c r="B155" s="4" t="n">
         <v>43254</v>
       </c>
-      <c r="C155" s="0" t="n">
-        <v>54.1580708874459</v>
-      </c>
-      <c r="D155" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="n">
@@ -2353,12 +1415,6 @@
       <c r="B156" s="4" t="n">
         <v>43255</v>
       </c>
-      <c r="C156" s="0" t="n">
-        <v>54.2799811827957</v>
-      </c>
-      <c r="D156" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="n">
@@ -2367,12 +1423,6 @@
       <c r="B157" s="4" t="n">
         <v>43256</v>
       </c>
-      <c r="C157" s="0" t="n">
-        <v>54.3914342948718</v>
-      </c>
-      <c r="D157" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="n">
@@ -2381,12 +1431,6 @@
       <c r="B158" s="4" t="n">
         <v>43257</v>
       </c>
-      <c r="C158" s="0" t="n">
-        <v>54.5133625265392</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="n">
@@ -2395,12 +1439,6 @@
       <c r="B159" s="4" t="n">
         <v>43258</v>
       </c>
-      <c r="C159" s="0" t="n">
-        <v>54.6527452531645</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="n">
@@ -2409,12 +1447,6 @@
       <c r="B160" s="4" t="n">
         <v>43259</v>
       </c>
-      <c r="C160" s="0" t="n">
-        <v>54.7863076519916</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="n">
@@ -2423,12 +1455,6 @@
       <c r="B161" s="4" t="n">
         <v>43260</v>
       </c>
-      <c r="C161" s="0" t="n">
-        <v>54.9351510416666</v>
-      </c>
-      <c r="D161" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="n">
@@ -2437,12 +1463,6 @@
       <c r="B162" s="4" t="n">
         <v>43261</v>
       </c>
-      <c r="C162" s="0" t="n">
-        <v>55.0764544513457</v>
-      </c>
-      <c r="D162" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="n">
@@ -2451,12 +1471,6 @@
       <c r="B163" s="4" t="n">
         <v>43262</v>
       </c>
-      <c r="C163" s="0" t="n">
-        <v>55.1958976337448</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="n">
@@ -2465,12 +1479,6 @@
       <c r="B164" s="4" t="n">
         <v>43263</v>
       </c>
-      <c r="C164" s="0" t="n">
-        <v>55.3167229038854</v>
-      </c>
-      <c r="D164" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="n">
@@ -2479,12 +1487,6 @@
       <c r="B165" s="4" t="n">
         <v>43264</v>
       </c>
-      <c r="C165" s="0" t="n">
-        <v>55.4364151422764</v>
-      </c>
-      <c r="D165" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="n">
@@ -2493,12 +1495,6 @@
       <c r="B166" s="4" t="n">
         <v>43265</v>
       </c>
-      <c r="C166" s="0" t="n">
-        <v>55.5738813131313</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="n">
@@ -2507,12 +1503,6 @@
       <c r="B167" s="4" t="n">
         <v>43266</v>
       </c>
-      <c r="C167" s="0" t="n">
-        <v>55.7235291164658</v>
-      </c>
-      <c r="D167" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="n">
@@ -2521,12 +1511,6 @@
       <c r="B168" s="4" t="n">
         <v>43267</v>
       </c>
-      <c r="C168" s="0" t="n">
-        <v>55.8694211576846</v>
-      </c>
-      <c r="D168" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="n">
@@ -2535,12 +1519,6 @@
       <c r="B169" s="4" t="n">
         <v>43268</v>
       </c>
-      <c r="C169" s="0" t="n">
-        <v>56.0107688492063</v>
-      </c>
-      <c r="D169" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="n">
@@ -2549,12 +1527,6 @@
       <c r="B170" s="4" t="n">
         <v>43269</v>
       </c>
-      <c r="C170" s="0" t="n">
-        <v>56.1488831360946</v>
-      </c>
-      <c r="D170" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="n">
@@ -2563,12 +1535,6 @@
       <c r="B171" s="4" t="n">
         <v>43270</v>
       </c>
-      <c r="C171" s="0" t="n">
-        <v>56.298431372549</v>
-      </c>
-      <c r="D171" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="n">
@@ -2577,12 +1543,6 @@
       <c r="B172" s="4" t="n">
         <v>43271</v>
       </c>
-      <c r="C172" s="0" t="n">
-        <v>56.4399780701754</v>
-      </c>
-      <c r="D172" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="n">
@@ -2591,12 +1551,6 @@
       <c r="B173" s="4" t="n">
         <v>43272</v>
       </c>
-      <c r="C173" s="0" t="n">
-        <v>56.5618919573643</v>
-      </c>
-      <c r="D173" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="n">
@@ -2605,12 +1559,6 @@
       <c r="B174" s="4" t="n">
         <v>43273</v>
       </c>
-      <c r="C174" s="0" t="n">
-        <v>56.6616281310211</v>
-      </c>
-      <c r="D174" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="n">
@@ -2619,12 +1567,6 @@
       <c r="B175" s="4" t="n">
         <v>43274</v>
       </c>
-      <c r="C175" s="0" t="n">
-        <v>56.7621599616857</v>
-      </c>
-      <c r="D175" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="n">
@@ -2633,12 +1575,6 @@
       <c r="B176" s="4" t="n">
         <v>43275</v>
       </c>
-      <c r="C176" s="0" t="n">
-        <v>56.8764476190476</v>
-      </c>
-      <c r="D176" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="n">
@@ -2647,12 +1583,6 @@
       <c r="B177" s="4" t="n">
         <v>43276</v>
       </c>
-      <c r="C177" s="0" t="n">
-        <v>56.977168560606</v>
-      </c>
-      <c r="D177" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="n">
@@ -2661,12 +1591,6 @@
       <c r="B178" s="4" t="n">
         <v>43277</v>
       </c>
-      <c r="C178" s="0" t="n">
-        <v>57.0934227871939</v>
-      </c>
-      <c r="D178" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="n">
@@ -2675,12 +1599,6 @@
       <c r="B179" s="4" t="n">
         <v>43278</v>
       </c>
-      <c r="C179" s="0" t="n">
-        <v>57.1961189138576</v>
-      </c>
-      <c r="D179" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="n">
@@ -2689,12 +1607,6 @@
       <c r="B180" s="4" t="n">
         <v>43279</v>
       </c>
-      <c r="C180" s="0" t="n">
-        <v>57.2816317504655</v>
-      </c>
-      <c r="D180" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="n">
@@ -2703,12 +1615,6 @@
       <c r="B181" s="4" t="n">
         <v>43280</v>
       </c>
-      <c r="C181" s="0" t="n">
-        <v>57.3848749999999</v>
-      </c>
-      <c r="D181" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="n">
@@ -2717,12 +1623,6 @@
       <c r="B182" s="4" t="n">
         <v>43281</v>
       </c>
-      <c r="C182" s="0" t="n">
-        <v>57.5157895948434</v>
-      </c>
-      <c r="D182" s="0" t="n">
-        <v>55.7652797558</v>
-      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="n">
@@ -2731,12 +1631,6 @@
       <c r="B183" s="4" t="n">
         <v>43282</v>
       </c>
-      <c r="C183" s="0" t="n">
-        <v>57.6292719780219</v>
-      </c>
-      <c r="D183" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
@@ -2745,12 +1639,6 @@
       <c r="B184" s="4" t="n">
         <v>43283</v>
       </c>
-      <c r="C184" s="0" t="n">
-        <v>57.7432900728597</v>
-      </c>
-      <c r="D184" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="n">
@@ -2759,12 +1647,6 @@
       <c r="B185" s="4" t="n">
         <v>43284</v>
       </c>
-      <c r="C185" s="0" t="n">
-        <v>57.8758288043478</v>
-      </c>
-      <c r="D185" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="n">
@@ -2773,12 +1655,6 @@
       <c r="B186" s="4" t="n">
         <v>43285</v>
       </c>
-      <c r="C186" s="0" t="n">
-        <v>58.0090945945946</v>
-      </c>
-      <c r="D186" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="n">
@@ -2787,12 +1663,6 @@
       <c r="B187" s="4" t="n">
         <v>43286</v>
       </c>
-      <c r="C187" s="0" t="n">
-        <v>58.1274036738351</v>
-      </c>
-      <c r="D187" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="n">
@@ -2801,12 +1671,6 @@
       <c r="B188" s="4" t="n">
         <v>43287</v>
       </c>
-      <c r="C188" s="0" t="n">
-        <v>58.2330548128342</v>
-      </c>
-      <c r="D188" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="n">
@@ -2815,12 +1679,6 @@
       <c r="B189" s="4" t="n">
         <v>43288</v>
       </c>
-      <c r="C189" s="0" t="n">
-        <v>58.32429964539</v>
-      </c>
-      <c r="D189" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="n">
@@ -2829,12 +1687,6 @@
       <c r="B190" s="4" t="n">
         <v>43289</v>
       </c>
-      <c r="C190" s="0" t="n">
-        <v>58.4250992063492</v>
-      </c>
-      <c r="D190" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="n">
@@ -2843,12 +1695,6 @@
       <c r="B191" s="4" t="n">
         <v>43290</v>
       </c>
-      <c r="C191" s="0" t="n">
-        <v>58.5308442982456</v>
-      </c>
-      <c r="D191" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="n">
@@ -2857,12 +1703,6 @@
       <c r="B192" s="4" t="n">
         <v>43291</v>
       </c>
-      <c r="C192" s="0" t="n">
-        <v>58.6441295811518</v>
-      </c>
-      <c r="D192" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="n">
@@ -2871,12 +1711,6 @@
       <c r="B193" s="4" t="n">
         <v>43292</v>
       </c>
-      <c r="C193" s="0" t="n">
-        <v>58.7637543402777</v>
-      </c>
-      <c r="D193" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="n">
@@ -2885,12 +1719,6 @@
       <c r="B194" s="4" t="n">
         <v>43293</v>
       </c>
-      <c r="C194" s="0" t="n">
-        <v>58.8809132124352</v>
-      </c>
-      <c r="D194" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="n">
@@ -2899,12 +1727,6 @@
       <c r="B195" s="4" t="n">
         <v>43294</v>
       </c>
-      <c r="C195" s="0" t="n">
-        <v>58.9992268041237</v>
-      </c>
-      <c r="D195" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="n">
@@ -2913,12 +1735,6 @@
       <c r="B196" s="4" t="n">
         <v>43295</v>
       </c>
-      <c r="C196" s="0" t="n">
-        <v>59.1165747863247</v>
-      </c>
-      <c r="D196" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="n">
@@ -2927,12 +1743,6 @@
       <c r="B197" s="4" t="n">
         <v>43296</v>
       </c>
-      <c r="C197" s="0" t="n">
-        <v>59.2131143707482</v>
-      </c>
-      <c r="D197" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="n">
@@ -2941,12 +1751,6 @@
       <c r="B198" s="4" t="n">
         <v>43297</v>
       </c>
-      <c r="C198" s="0" t="n">
-        <v>59.3143316412859</v>
-      </c>
-      <c r="D198" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="n">
@@ -2955,12 +1759,6 @@
       <c r="B199" s="4" t="n">
         <v>43298</v>
       </c>
-      <c r="C199" s="0" t="n">
-        <v>59.4022622053871</v>
-      </c>
-      <c r="D199" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="n">
@@ -2969,12 +1767,6 @@
       <c r="B200" s="4" t="n">
         <v>43299</v>
       </c>
-      <c r="C200" s="0" t="n">
-        <v>59.5078287269681</v>
-      </c>
-      <c r="D200" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="n">
@@ -2983,12 +1775,6 @@
       <c r="B201" s="4" t="n">
         <v>43300</v>
       </c>
-      <c r="C201" s="0" t="n">
-        <v>59.6033249999999</v>
-      </c>
-      <c r="D201" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="n">
@@ -2997,12 +1783,6 @@
       <c r="B202" s="4" t="n">
         <v>43301</v>
       </c>
-      <c r="C202" s="0" t="n">
-        <v>59.6998797678275</v>
-      </c>
-      <c r="D202" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="n">
@@ -3011,12 +1791,6 @@
       <c r="B203" s="4" t="n">
         <v>43302</v>
       </c>
-      <c r="C203" s="0" t="n">
-        <v>59.7870771452144</v>
-      </c>
-      <c r="D203" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="n">
@@ -3025,12 +1799,6 @@
       <c r="B204" s="4" t="n">
         <v>43303</v>
       </c>
-      <c r="C204" s="0" t="n">
-        <v>59.8610714285713</v>
-      </c>
-      <c r="D204" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="n">
@@ -3039,12 +1807,6 @@
       <c r="B205" s="4" t="n">
         <v>43304</v>
       </c>
-      <c r="C205" s="0" t="n">
-        <v>59.9338643790849</v>
-      </c>
-      <c r="D205" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="n">
@@ -3053,12 +1815,6 @@
       <c r="B206" s="4" t="n">
         <v>43305</v>
       </c>
-      <c r="C206" s="0" t="n">
-        <v>60.0136788617885</v>
-      </c>
-      <c r="D206" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="n">
@@ -3067,12 +1823,6 @@
       <c r="B207" s="4" t="n">
         <v>43306</v>
       </c>
-      <c r="C207" s="0" t="n">
-        <v>60.1030258899676</v>
-      </c>
-      <c r="D207" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="n">
@@ -3081,12 +1831,6 @@
       <c r="B208" s="4" t="n">
         <v>43307</v>
       </c>
-      <c r="C208" s="0" t="n">
-        <v>60.184343800322</v>
-      </c>
-      <c r="D208" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="n">
@@ -3095,12 +1839,6 @@
       <c r="B209" s="4" t="n">
         <v>43308</v>
       </c>
-      <c r="C209" s="0" t="n">
-        <v>60.2672335737179</v>
-      </c>
-      <c r="D209" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="n">
@@ -3109,12 +1847,6 @@
       <c r="B210" s="4" t="n">
         <v>43309</v>
       </c>
-      <c r="C210" s="0" t="n">
-        <v>60.3407057416267</v>
-      </c>
-      <c r="D210" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="n">
@@ -3123,12 +1855,6 @@
       <c r="B211" s="4" t="n">
         <v>43310</v>
       </c>
-      <c r="C211" s="0" t="n">
-        <v>60.4178392857142</v>
-      </c>
-      <c r="D211" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="n">
@@ -3137,12 +1863,6 @@
       <c r="B212" s="4" t="n">
         <v>43311</v>
       </c>
-      <c r="C212" s="0" t="n">
-        <v>60.5031852290679</v>
-      </c>
-      <c r="D212" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="n">
@@ -3151,12 +1871,6 @@
       <c r="B213" s="4" t="n">
         <v>43312</v>
       </c>
-      <c r="C213" s="0" t="n">
-        <v>60.5743848270439</v>
-      </c>
-      <c r="D213" s="0" t="n">
-        <v>59.2267721834</v>
-      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="n">
@@ -3165,12 +1879,6 @@
       <c r="B214" s="4" t="n">
         <v>43313</v>
       </c>
-      <c r="C214" s="0" t="n">
-        <v>60.6211482785602</v>
-      </c>
-      <c r="D214" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="n">
@@ -3179,12 +1887,6 @@
       <c r="B215" s="4" t="n">
         <v>43314</v>
       </c>
-      <c r="C215" s="0" t="n">
-        <v>60.670496495327</v>
-      </c>
-      <c r="D215" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="n">
@@ -3193,12 +1895,6 @@
       <c r="B216" s="4" t="n">
         <v>43315</v>
       </c>
-      <c r="C216" s="0" t="n">
-        <v>60.7431763565891</v>
-      </c>
-      <c r="D216" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="n">
@@ -3207,12 +1903,6 @@
       <c r="B217" s="4" t="n">
         <v>43316</v>
       </c>
-      <c r="C217" s="0" t="n">
-        <v>60.8224151234567</v>
-      </c>
-      <c r="D217" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="n">
@@ -3221,12 +1911,6 @@
       <c r="B218" s="4" t="n">
         <v>43317</v>
       </c>
-      <c r="C218" s="0" t="n">
-        <v>60.9112096774193</v>
-      </c>
-      <c r="D218" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="n">
@@ -3235,12 +1919,6 @@
       <c r="B219" s="4" t="n">
         <v>43318</v>
       </c>
-      <c r="C219" s="0" t="n">
-        <v>61.0045412844036</v>
-      </c>
-      <c r="D219" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="n">
@@ -3249,12 +1927,6 @@
       <c r="B220" s="4" t="n">
         <v>43319</v>
       </c>
-      <c r="C220" s="0" t="n">
-        <v>61.0974847792998</v>
-      </c>
-      <c r="D220" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="n">
@@ -3263,12 +1935,6 @@
       <c r="B221" s="4" t="n">
         <v>43320</v>
       </c>
-      <c r="C221" s="0" t="n">
-        <v>61.1716742424242</v>
-      </c>
-      <c r="D221" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="n">
@@ -3277,12 +1943,6 @@
       <c r="B222" s="4" t="n">
         <v>43321</v>
       </c>
-      <c r="C222" s="0" t="n">
-        <v>61.2289008295625</v>
-      </c>
-      <c r="D222" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="n">
@@ -3291,12 +1951,6 @@
       <c r="B223" s="4" t="n">
         <v>43322</v>
       </c>
-      <c r="C223" s="0" t="n">
-        <v>61.2917454954954</v>
-      </c>
-      <c r="D223" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="n">
@@ -3305,12 +1959,6 @@
       <c r="B224" s="4" t="n">
         <v>43323</v>
       </c>
-      <c r="C224" s="0" t="n">
-        <v>61.3639144245141</v>
-      </c>
-      <c r="D224" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="n">
@@ -3319,12 +1967,6 @@
       <c r="B225" s="4" t="n">
         <v>43324</v>
       </c>
-      <c r="C225" s="0" t="n">
-        <v>61.440939360119</v>
-      </c>
-      <c r="D225" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="n">
@@ -3333,12 +1975,6 @@
       <c r="B226" s="4" t="n">
         <v>43325</v>
       </c>
-      <c r="C226" s="0" t="n">
-        <v>61.5093592592592</v>
-      </c>
-      <c r="D226" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="n">
@@ -3347,12 +1983,6 @@
       <c r="B227" s="4" t="n">
         <v>43326</v>
       </c>
-      <c r="C227" s="0" t="n">
-        <v>61.581259218289</v>
-      </c>
-      <c r="D227" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="n">
@@ -3361,12 +1991,6 @@
       <c r="B228" s="4" t="n">
         <v>43327</v>
       </c>
-      <c r="C228" s="0" t="n">
-        <v>61.6479148311306</v>
-      </c>
-      <c r="D228" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="n">
@@ -3375,12 +1999,6 @@
       <c r="B229" s="4" t="n">
         <v>43328</v>
       </c>
-      <c r="C229" s="0" t="n">
-        <v>61.7244060672514</v>
-      </c>
-      <c r="D229" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="n">
@@ -3389,12 +2007,6 @@
       <c r="B230" s="4" t="n">
         <v>43329</v>
       </c>
-      <c r="C230" s="0" t="n">
-        <v>61.7981513828238</v>
-      </c>
-      <c r="D230" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="n">
@@ -3403,12 +2015,6 @@
       <c r="B231" s="4" t="n">
         <v>43330</v>
       </c>
-      <c r="C231" s="0" t="n">
-        <v>61.8637536231884</v>
-      </c>
-      <c r="D231" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="n">
@@ -3417,12 +2023,6 @@
       <c r="B232" s="4" t="n">
         <v>43331</v>
       </c>
-      <c r="C232" s="0" t="n">
-        <v>61.9338654401154</v>
-      </c>
-      <c r="D232" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="n">
@@ -3431,12 +2031,6 @@
       <c r="B233" s="4" t="n">
         <v>43332</v>
       </c>
-      <c r="C233" s="0" t="n">
-        <v>62.0019989224137</v>
-      </c>
-      <c r="D233" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="n">
@@ -3445,12 +2039,6 @@
       <c r="B234" s="4" t="n">
         <v>43333</v>
       </c>
-      <c r="C234" s="0" t="n">
-        <v>62.0700196709585</v>
-      </c>
-      <c r="D234" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="n">
@@ -3459,12 +2047,6 @@
       <c r="B235" s="4" t="n">
         <v>43334</v>
       </c>
-      <c r="C235" s="0" t="n">
-        <v>62.1276976495726</v>
-      </c>
-      <c r="D235" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="n">
@@ -3473,12 +2055,6 @@
       <c r="B236" s="4" t="n">
         <v>43335</v>
       </c>
-      <c r="C236" s="0" t="n">
-        <v>62.1723882978723</v>
-      </c>
-      <c r="D236" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="n">
@@ -3487,12 +2063,6 @@
       <c r="B237" s="4" t="n">
         <v>43336</v>
       </c>
-      <c r="C237" s="0" t="n">
-        <v>62.2080014124293</v>
-      </c>
-      <c r="D237" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="n">
@@ -3501,12 +2071,6 @@
       <c r="B238" s="4" t="n">
         <v>43337</v>
       </c>
-      <c r="C238" s="0" t="n">
-        <v>62.2618372011251</v>
-      </c>
-      <c r="D238" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="n">
@@ -3515,12 +2079,6 @@
       <c r="B239" s="4" t="n">
         <v>43338</v>
       </c>
-      <c r="C239" s="0" t="n">
-        <v>62.3275385154061</v>
-      </c>
-      <c r="D239" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="n">
@@ -3529,12 +2087,6 @@
       <c r="B240" s="4" t="n">
         <v>43339</v>
       </c>
-      <c r="C240" s="0" t="n">
-        <v>62.3974285216178</v>
-      </c>
-      <c r="D240" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="n">
@@ -3543,12 +2095,6 @@
       <c r="B241" s="4" t="n">
         <v>43340</v>
       </c>
-      <c r="C241" s="0" t="n">
-        <v>62.4725989583332</v>
-      </c>
-      <c r="D241" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="n">
@@ -3557,12 +2103,6 @@
       <c r="B242" s="4" t="n">
         <v>43341</v>
       </c>
-      <c r="C242" s="0" t="n">
-        <v>62.5435598201936</v>
-      </c>
-      <c r="D242" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="n">
@@ -3571,12 +2111,6 @@
       <c r="B243" s="4" t="n">
         <v>43342</v>
       </c>
-      <c r="C243" s="0" t="n">
-        <v>62.6146900826445</v>
-      </c>
-      <c r="D243" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="n">
@@ -3585,12 +2119,6 @@
       <c r="B244" s="4" t="n">
         <v>43343</v>
       </c>
-      <c r="C244" s="0" t="n">
-        <v>62.6724211248284</v>
-      </c>
-      <c r="D244" s="0" t="n">
-        <v>61.6869850434</v>
-      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="n">
@@ -3599,9 +2127,6 @@
       <c r="B245" s="4" t="n">
         <v>43344</v>
       </c>
-      <c r="C245" s="0" t="n">
-        <v>62.733862704918</v>
-      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="n">
@@ -3610,9 +2135,6 @@
       <c r="B246" s="4" t="n">
         <v>43345</v>
       </c>
-      <c r="C246" s="0" t="n">
-        <v>62.7953435374149</v>
-      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="n">
@@ -3621,9 +2143,6 @@
       <c r="B247" s="4" t="n">
         <v>43346</v>
       </c>
-      <c r="C247" s="0" t="n">
-        <v>62.8633011517614</v>
-      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="n">
@@ -3632,9 +2151,6 @@
       <c r="B248" s="4" t="n">
         <v>43347</v>
       </c>
-      <c r="C248" s="0" t="n">
-        <v>62.9302024291497</v>
-      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="n">
@@ -3643,9 +2159,6 @@
       <c r="B249" s="4" t="n">
         <v>43348</v>
       </c>
-      <c r="C249" s="0" t="n">
-        <v>62.9935853494623</v>
-      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="n">
@@ -3654,9 +2167,6 @@
       <c r="B250" s="4" t="n">
         <v>43349</v>
       </c>
-      <c r="C250" s="0" t="n">
-        <v>63.051828982597</v>
-      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="n">
@@ -3665,9 +2175,6 @@
       <c r="B251" s="4" t="n">
         <v>43350</v>
       </c>
-      <c r="C251" s="0" t="n">
-        <v>63.1140833333333</v>
-      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="n">
@@ -3676,9 +2183,6 @@
       <c r="B252" s="4" t="n">
         <v>43351</v>
       </c>
-      <c r="C252" s="0" t="n">
-        <v>63.1778203851261</v>
-      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="n">
@@ -3687,9 +2191,6 @@
       <c r="B253" s="4" t="n">
         <v>43352</v>
       </c>
-      <c r="C253" s="0" t="n">
-        <v>63.235033068783</v>
-      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="n">
@@ -3698,9 +2199,6 @@
       <c r="B254" s="4" t="n">
         <v>43353</v>
       </c>
-      <c r="C254" s="0" t="n">
-        <v>63.2773386034255</v>
-      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="n">
@@ -3709,9 +2207,6 @@
       <c r="B255" s="4" t="n">
         <v>43354</v>
       </c>
-      <c r="C255" s="0" t="n">
-        <v>63.3180495406823</v>
-      </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="n">
@@ -3720,9 +2215,6 @@
       <c r="B256" s="4" t="n">
         <v>43355</v>
       </c>
-      <c r="C256" s="0" t="n">
-        <v>63.3649999999999</v>
-      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="n">
@@ -3731,9 +2223,6 @@
       <c r="B257" s="4" t="n">
         <v>43356</v>
       </c>
-      <c r="C257" s="0" t="n">
-        <v>63.4271923828124</v>
-      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="n">
@@ -3742,9 +2231,6 @@
       <c r="B258" s="4" t="n">
         <v>43357</v>
       </c>
-      <c r="C258" s="0" t="n">
-        <v>63.4940207522697</v>
-      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="n">
@@ -3753,9 +2239,6 @@
       <c r="B259" s="4" t="n">
         <v>43358</v>
       </c>
-      <c r="C259" s="0" t="n">
-        <v>63.5592135012919</v>
-      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="n">
@@ -3764,9 +2247,6 @@
       <c r="B260" s="4" t="n">
         <v>43359</v>
       </c>
-      <c r="C260" s="0" t="n">
-        <v>63.6087017374517</v>
-      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="n">
@@ -3775,9 +2255,6 @@
       <c r="B261" s="4" t="n">
         <v>43360</v>
       </c>
-      <c r="C261" s="0" t="n">
-        <v>63.6539967948717</v>
-      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="n">
@@ -3786,9 +2263,6 @@
       <c r="B262" s="4" t="n">
         <v>43361</v>
       </c>
-      <c r="C262" s="0" t="n">
-        <v>63.7052394636015</v>
-      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="n">
@@ -3797,9 +2271,6 @@
       <c r="B263" s="4" t="n">
         <v>43362</v>
       </c>
-      <c r="C263" s="0" t="n">
-        <v>63.7618400127226</v>
-      </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="n">
@@ -3808,9 +2279,6 @@
       <c r="B264" s="4" t="n">
         <v>43363</v>
       </c>
-      <c r="C264" s="0" t="n">
-        <v>63.8212579214195</v>
-      </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="n">
@@ -3819,9 +2287,6 @@
       <c r="B265" s="4" t="n">
         <v>43364</v>
       </c>
-      <c r="C265" s="0" t="n">
-        <v>63.8757654671717</v>
-      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="n">
@@ -3830,9 +2295,6 @@
       <c r="B266" s="4" t="n">
         <v>43365</v>
       </c>
-      <c r="C266" s="0" t="n">
-        <v>63.9363050314465</v>
-      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="n">
@@ -3841,9 +2303,6 @@
       <c r="B267" s="4" t="n">
         <v>43366</v>
       </c>
-      <c r="C267" s="0" t="n">
-        <v>63.9854072681704</v>
-      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="n">
@@ -3852,9 +2311,6 @@
       <c r="B268" s="4" t="n">
         <v>43367</v>
       </c>
-      <c r="C268" s="0" t="n">
-        <v>64.014243133583</v>
-      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="n">
@@ -3863,9 +2319,6 @@
       <c r="B269" s="4" t="n">
         <v>43368</v>
       </c>
-      <c r="C269" s="0" t="n">
-        <v>64.0500559701492</v>
-      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="n">
@@ -3874,9 +2327,6 @@
       <c r="B270" s="4" t="n">
         <v>43369</v>
       </c>
-      <c r="C270" s="0" t="n">
-        <v>64.0844330855018</v>
-      </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="n">
@@ -3885,9 +2335,6 @@
       <c r="B271" s="4" t="n">
         <v>43370</v>
       </c>
-      <c r="C271" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="n">
@@ -3896,9 +2343,6 @@
       <c r="B272" s="4" t="n">
         <v>43371</v>
       </c>
-      <c r="C272" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="n">
@@ -3907,9 +2351,6 @@
       <c r="B273" s="4" t="n">
         <v>43372</v>
       </c>
-      <c r="C273" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="n">
@@ -3918,9 +2359,6 @@
       <c r="B274" s="4" t="n">
         <v>43373</v>
       </c>
-      <c r="C274" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="n">
@@ -3929,9 +2367,6 @@
       <c r="B275" s="4" t="n">
         <v>43374</v>
       </c>
-      <c r="C275" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="n">
@@ -3940,9 +2375,6 @@
       <c r="B276" s="4" t="n">
         <v>43375</v>
       </c>
-      <c r="C276" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="n">
@@ -3951,9 +2383,6 @@
       <c r="B277" s="4" t="n">
         <v>43376</v>
       </c>
-      <c r="C277" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="n">
@@ -3962,9 +2391,6 @@
       <c r="B278" s="4" t="n">
         <v>43377</v>
       </c>
-      <c r="C278" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="n">
@@ -3973,9 +2399,6 @@
       <c r="B279" s="4" t="n">
         <v>43378</v>
       </c>
-      <c r="C279" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="n">
@@ -3984,9 +2407,6 @@
       <c r="B280" s="4" t="n">
         <v>43379</v>
       </c>
-      <c r="C280" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="n">
@@ -3995,9 +2415,6 @@
       <c r="B281" s="4" t="n">
         <v>43380</v>
       </c>
-      <c r="C281" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="n">
@@ -4006,9 +2423,6 @@
       <c r="B282" s="4" t="n">
         <v>43381</v>
       </c>
-      <c r="C282" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="n">
@@ -4017,9 +2431,6 @@
       <c r="B283" s="4" t="n">
         <v>43382</v>
       </c>
-      <c r="C283" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="n">
@@ -4028,9 +2439,6 @@
       <c r="B284" s="4" t="n">
         <v>43383</v>
       </c>
-      <c r="C284" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="n">
@@ -4039,9 +2447,6 @@
       <c r="B285" s="4" t="n">
         <v>43384</v>
       </c>
-      <c r="C285" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="n">
@@ -4050,9 +2455,6 @@
       <c r="B286" s="4" t="n">
         <v>43385</v>
       </c>
-      <c r="C286" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="n">
@@ -4061,9 +2463,6 @@
       <c r="B287" s="4" t="n">
         <v>43386</v>
       </c>
-      <c r="C287" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="n">
@@ -4072,9 +2471,6 @@
       <c r="B288" s="4" t="n">
         <v>43387</v>
       </c>
-      <c r="C288" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="n">
@@ -4083,9 +2479,6 @@
       <c r="B289" s="4" t="n">
         <v>43388</v>
       </c>
-      <c r="C289" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="n">
@@ -4094,9 +2487,6 @@
       <c r="B290" s="4" t="n">
         <v>43389</v>
       </c>
-      <c r="C290" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="n">
@@ -4105,9 +2495,6 @@
       <c r="B291" s="4" t="n">
         <v>43390</v>
       </c>
-      <c r="C291" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="n">
@@ -4116,9 +2503,6 @@
       <c r="B292" s="4" t="n">
         <v>43391</v>
       </c>
-      <c r="C292" s="0" t="n">
-        <v>-100</v>
-      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="n">
@@ -4142,6 +2526,22 @@
       </c>
       <c r="B295" s="4" t="n">
         <v>43394</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" s="4" t="n">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="3" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" s="4" t="n">
+        <v>43396</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
+++ b/Excel & CSV Sheets/2017+2018 Data/Day Holder 2018.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B299" activeCellId="0" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2544,6 +2544,14 @@
         <v>43396</v>
       </c>
     </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" s="4" t="n">
+        <v>43397</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
